--- a/inputFiles/Doctor_Login.xlsx
+++ b/inputFiles/Doctor_Login.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\EzScheduler\EzScheduler\inputFiles\"/>
     </mc:Choice>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="108">
   <si>
     <t>UserName</t>
   </si>
@@ -356,6 +356,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -736,11 +737,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="44.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="44.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -800,16 +801,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="53.5703125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="54.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="53.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="54.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1176,10 +1177,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1267,14 +1268,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="74.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="74.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1383,11 +1384,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="38.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">

--- a/inputFiles/Doctor_Login.xlsx
+++ b/inputFiles/Doctor_Login.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\EzScheduler\EzScheduler\inputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\EzscheulerProject\EzScheduler\inputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106CDCDD-2AAB-404C-9587-23B1F8F2C1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4AFBE8-F80A-4AC4-B93E-656FE3BA8A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="108">
   <si>
     <t>UserName</t>
   </si>
@@ -356,7 +356,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -737,11 +736,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="44.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="44.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -795,22 +794,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="53.5703125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="54.5703125" collapsed="true"/>
+    <col min="1" max="2" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="53.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="54.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1177,10 +1176,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="17" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1268,14 +1267,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="74.7109375" collapsed="true"/>
+    <col min="1" max="1" width="40.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="74.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1384,11 +1383,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="38.5703125" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="38.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">

--- a/inputFiles/Doctor_Login.xlsx
+++ b/inputFiles/Doctor_Login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\EzscheulerProject\EzScheduler\inputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4AFBE8-F80A-4AC4-B93E-656FE3BA8A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C9B09D-92D6-4C5B-84E9-7C5A7D1CA695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="109">
   <si>
     <t>UserName</t>
   </si>
@@ -340,9 +340,6 @@
     <t>21122021</t>
   </si>
   <si>
-    <t>09122021</t>
-  </si>
-  <si>
     <t>07122021</t>
   </si>
   <si>
@@ -350,6 +347,12 @@
   </si>
   <si>
     <t>11122021</t>
+  </si>
+  <si>
+    <t>9122021</t>
+  </si>
+  <si>
+    <t>7122021</t>
   </si>
 </sst>
 </file>
@@ -794,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,10 +1037,10 @@
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -1069,10 +1072,10 @@
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" t="s">
         <v>85</v>
@@ -1104,10 +1107,10 @@
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" t="s">
         <v>66</v>
@@ -1137,10 +1140,10 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F10" t="s">
         <v>66</v>
